--- a/biology/Botanique/Toussaintia_hallei/Toussaintia_hallei.xlsx
+++ b/biology/Botanique/Toussaintia_hallei/Toussaintia_hallei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Toussaintia hallei Le Thomas est une espèce de plantes à fleurs de la famille des Annonaceae et du genre Toussaintia, présente au Gabon et au Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique hallei rend hommage au botaniste Nicolas Hallé qui récolta le premier spécimen le 2 juillet 1966 aux mines de fer des monts Belinga au Gabon, à une altitude de 950 m[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique hallei rend hommage au botaniste Nicolas Hallé qui récolta le premier spécimen le 2 juillet 1966 aux mines de fer des monts Belinga au Gabon, à une altitude de 950 m.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une liane dont Nicolas Hallé décrit la fleur comme « très belle, visible de loin, épanouie au soleil en fin de matinée, tournée vers le haut, ainsi que les boutons »[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une liane dont Nicolas Hallé décrit la fleur comme « très belle, visible de loin, épanouie au soleil en fin de matinée, tournée vers le haut, ainsi que les boutons ».
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Très rare, l'espèce n'est connue que de deux sites, l'un au Gabon (Bélinga), l'autre au Cameroun, dans la Région de l'Est, au nord-est de Moloundou[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très rare, l'espèce n'est connue que de deux sites, l'un au Gabon (Bélinga), l'autre au Cameroun, dans la Région de l'Est, au nord-est de Moloundou.
 </t>
         </is>
       </c>
